--- a/ui-testsuite/src/main/resources/TestData/ATR_Imported_Renewal_CheckFormatFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Imported_Renewal_CheckFormatFields.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="238">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -720,6 +720,24 @@
   </si>
   <si>
     <t>Q5</t>
+  </si>
+  <si>
+    <t>QUOTED1</t>
+  </si>
+  <si>
+    <t>UPSIDE1</t>
+  </si>
+  <si>
+    <t>NO1</t>
+  </si>
+  <si>
+    <t>test invalid</t>
+  </si>
+  <si>
+    <t>test under</t>
+  </si>
+  <si>
+    <t>No1</t>
   </si>
 </sst>
 </file>
@@ -728,7 +746,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -885,7 +903,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FF25"/>
+  <dimension ref="A1:FF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CT7" workbookViewId="0">
-      <selection activeCell="DK25" sqref="DK25"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="EV23" sqref="EV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,6 +1213,9 @@
     <col min="99" max="99" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="108" max="109" width="11.85546875" customWidth="1"/>
     <col min="118" max="118" width="13.42578125" customWidth="1"/>
+    <col min="119" max="119" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11000,6 +11021,3892 @@
       </c>
       <c r="FF25" s="14"/>
     </row>
+    <row r="26" spans="1:162" s="13" customFormat="1">
+      <c r="A26" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE26" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF26" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN26" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR26" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX26" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY26" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ26" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA26" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB26" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC26" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD26" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG26" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="14"/>
+      <c r="BK26" s="14"/>
+      <c r="BL26" s="14"/>
+      <c r="BM26" s="14"/>
+      <c r="BN26" s="14"/>
+      <c r="BO26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP26" s="14"/>
+      <c r="BQ26" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR26" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS26" s="16"/>
+      <c r="BT26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV26" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW26" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX26" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY26" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ26" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA26" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC26" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD26" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF26" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG26" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH26" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI26" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ26" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK26" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL26" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO26" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP26" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ26" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR26" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS26" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT26" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU26" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV26" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX26" s="14"/>
+      <c r="CY26" s="14"/>
+      <c r="CZ26" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA26" s="15"/>
+      <c r="DB26" s="15"/>
+      <c r="DC26" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD26" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE26" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF26" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG26" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH26" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI26" s="15"/>
+      <c r="DJ26" s="15"/>
+      <c r="DK26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL26" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="DM26" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN26" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO26" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT26" s="14"/>
+      <c r="DU26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV26" s="14"/>
+      <c r="DW26" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX26" s="14"/>
+      <c r="DY26" s="14"/>
+      <c r="DZ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA26" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB26" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC26" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED26" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE26" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF26" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG26" s="14"/>
+      <c r="EH26" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI26" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ26" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO26" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP26" s="14"/>
+      <c r="EQ26" s="14"/>
+      <c r="ER26" s="14"/>
+      <c r="ES26" s="14"/>
+      <c r="ET26" s="14"/>
+      <c r="EU26" s="14"/>
+      <c r="EV26" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW26" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX26" s="14"/>
+      <c r="EY26" s="14"/>
+      <c r="EZ26" s="14"/>
+      <c r="FA26" s="14"/>
+      <c r="FB26" s="14"/>
+      <c r="FC26" s="14"/>
+      <c r="FD26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE26" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF26" s="14"/>
+    </row>
+    <row r="27" spans="1:162" s="13" customFormat="1">
+      <c r="A27" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD27" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF27" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG27" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM27" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN27" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR27" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY27" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ27" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA27" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB27" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC27" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD27" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE27" s="14"/>
+      <c r="BF27" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG27" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH27" s="14"/>
+      <c r="BI27" s="14"/>
+      <c r="BJ27" s="14"/>
+      <c r="BK27" s="14"/>
+      <c r="BL27" s="14"/>
+      <c r="BM27" s="14"/>
+      <c r="BN27" s="14"/>
+      <c r="BO27" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP27" s="14"/>
+      <c r="BQ27" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR27" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS27" s="16"/>
+      <c r="BT27" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU27" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV27" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW27" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX27" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY27" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ27" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA27" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB27" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC27" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE27" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI27" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ27" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL27" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO27" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP27" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ27" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR27" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS27" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT27" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU27" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV27" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX27" s="14"/>
+      <c r="CY27" s="14"/>
+      <c r="CZ27" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA27" s="15"/>
+      <c r="DB27" s="15"/>
+      <c r="DC27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD27" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE27" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF27" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG27" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH27" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI27" s="15"/>
+      <c r="DJ27" s="15"/>
+      <c r="DK27" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL27" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM27" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="DN27" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO27" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT27" s="14"/>
+      <c r="DU27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV27" s="14"/>
+      <c r="DW27" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX27" s="14"/>
+      <c r="DY27" s="14"/>
+      <c r="DZ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA27" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB27" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC27" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED27" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE27" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF27" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG27" s="14"/>
+      <c r="EH27" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI27" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ27" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO27" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP27" s="14"/>
+      <c r="EQ27" s="14"/>
+      <c r="ER27" s="14"/>
+      <c r="ES27" s="14"/>
+      <c r="ET27" s="14"/>
+      <c r="EU27" s="14"/>
+      <c r="EV27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW27" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX27" s="14"/>
+      <c r="EY27" s="14"/>
+      <c r="EZ27" s="14"/>
+      <c r="FA27" s="14"/>
+      <c r="FB27" s="14"/>
+      <c r="FC27" s="14"/>
+      <c r="FD27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE27" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF27" s="14"/>
+    </row>
+    <row r="28" spans="1:162" s="13" customFormat="1">
+      <c r="A28" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG28" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN28" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR28" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX28" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY28" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ28" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB28" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD28" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG28" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="14"/>
+      <c r="BK28" s="14"/>
+      <c r="BL28" s="14"/>
+      <c r="BM28" s="14"/>
+      <c r="BN28" s="14"/>
+      <c r="BO28" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP28" s="14"/>
+      <c r="BQ28" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR28" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS28" s="16"/>
+      <c r="BT28" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU28" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV28" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW28" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX28" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY28" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ28" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA28" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB28" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC28" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD28" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE28" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF28" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG28" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH28" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI28" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ28" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK28" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL28" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO28" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP28" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ28" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR28" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS28" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT28" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU28" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV28" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX28" s="14"/>
+      <c r="CY28" s="14"/>
+      <c r="CZ28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA28" s="15"/>
+      <c r="DB28" s="15"/>
+      <c r="DC28" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD28" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE28" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF28" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG28" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH28" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI28" s="15"/>
+      <c r="DJ28" s="15"/>
+      <c r="DK28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL28" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM28" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN28" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="DO28" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT28" s="14"/>
+      <c r="DU28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV28" s="14"/>
+      <c r="DW28" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX28" s="14"/>
+      <c r="DY28" s="14"/>
+      <c r="DZ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA28" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB28" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC28" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED28" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE28" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF28" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG28" s="14"/>
+      <c r="EH28" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI28" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ28" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO28" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP28" s="14"/>
+      <c r="EQ28" s="14"/>
+      <c r="ER28" s="14"/>
+      <c r="ES28" s="14"/>
+      <c r="ET28" s="14"/>
+      <c r="EU28" s="14"/>
+      <c r="EV28" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW28" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX28" s="14"/>
+      <c r="EY28" s="14"/>
+      <c r="EZ28" s="14"/>
+      <c r="FA28" s="14"/>
+      <c r="FB28" s="14"/>
+      <c r="FC28" s="14"/>
+      <c r="FD28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE28" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF28" s="14"/>
+    </row>
+    <row r="29" spans="1:162" s="13" customFormat="1">
+      <c r="A29" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC29" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG29" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN29" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR29" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA29" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB29" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC29" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE29" s="14"/>
+      <c r="BF29" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG29" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH29" s="14"/>
+      <c r="BI29" s="14"/>
+      <c r="BJ29" s="14"/>
+      <c r="BK29" s="14"/>
+      <c r="BL29" s="14"/>
+      <c r="BM29" s="14"/>
+      <c r="BN29" s="14"/>
+      <c r="BO29" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP29" s="14"/>
+      <c r="BQ29" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR29" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS29" s="16"/>
+      <c r="BT29" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV29" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW29" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX29" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY29" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ29" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA29" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC29" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE29" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ29" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK29" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL29" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ29" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR29" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS29" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT29" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU29" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV29" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX29" s="14"/>
+      <c r="CY29" s="14"/>
+      <c r="CZ29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA29" s="15"/>
+      <c r="DB29" s="15"/>
+      <c r="DC29" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD29" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE29" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF29" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG29" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH29" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI29" s="15"/>
+      <c r="DJ29" s="15"/>
+      <c r="DK29" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM29" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN29" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP29" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="DQ29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT29" s="14"/>
+      <c r="DU29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV29" s="14"/>
+      <c r="DW29" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX29" s="14"/>
+      <c r="DY29" s="14"/>
+      <c r="DZ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA29" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB29" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC29" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED29" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE29" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF29" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG29" s="14"/>
+      <c r="EH29" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI29" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO29" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP29" s="14"/>
+      <c r="EQ29" s="14"/>
+      <c r="ER29" s="14"/>
+      <c r="ES29" s="14"/>
+      <c r="ET29" s="14"/>
+      <c r="EU29" s="14"/>
+      <c r="EV29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW29" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX29" s="14"/>
+      <c r="EY29" s="14"/>
+      <c r="EZ29" s="14"/>
+      <c r="FA29" s="14"/>
+      <c r="FB29" s="14"/>
+      <c r="FC29" s="14"/>
+      <c r="FD29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE29" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF29" s="14"/>
+    </row>
+    <row r="30" spans="1:162" s="13" customFormat="1">
+      <c r="A30" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD30" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG30" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN30" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX30" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ30" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA30" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB30" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC30" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD30" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE30" s="14"/>
+      <c r="BF30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG30" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH30" s="14"/>
+      <c r="BI30" s="14"/>
+      <c r="BJ30" s="14"/>
+      <c r="BK30" s="14"/>
+      <c r="BL30" s="14"/>
+      <c r="BM30" s="14"/>
+      <c r="BN30" s="14"/>
+      <c r="BO30" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP30" s="14"/>
+      <c r="BQ30" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR30" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU30" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV30" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW30" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX30" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY30" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ30" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA30" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB30" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC30" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD30" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE30" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI30" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ30" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK30" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL30" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO30" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP30" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ30" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR30" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS30" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT30" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU30" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV30" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX30" s="14"/>
+      <c r="CY30" s="14"/>
+      <c r="CZ30" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA30" s="15"/>
+      <c r="DB30" s="15"/>
+      <c r="DC30" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD30" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE30" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF30" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG30" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH30" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI30" s="15"/>
+      <c r="DJ30" s="15"/>
+      <c r="DK30" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL30" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM30" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN30" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO30" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ30" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="DR30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT30" s="14"/>
+      <c r="DU30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV30" s="14"/>
+      <c r="DW30" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX30" s="14"/>
+      <c r="DY30" s="14"/>
+      <c r="DZ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA30" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB30" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC30" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED30" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE30" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF30" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG30" s="14"/>
+      <c r="EH30" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI30" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ30" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO30" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP30" s="14"/>
+      <c r="EQ30" s="14"/>
+      <c r="ER30" s="14"/>
+      <c r="ES30" s="14"/>
+      <c r="ET30" s="14"/>
+      <c r="EU30" s="14"/>
+      <c r="EV30" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW30" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX30" s="14"/>
+      <c r="EY30" s="14"/>
+      <c r="EZ30" s="14"/>
+      <c r="FA30" s="14"/>
+      <c r="FB30" s="14"/>
+      <c r="FC30" s="14"/>
+      <c r="FD30" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE30" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF30" s="14"/>
+    </row>
+    <row r="31" spans="1:162" s="13" customFormat="1">
+      <c r="A31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC31" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD31" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG31" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM31" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN31" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR31" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX31" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY31" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA31" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB31" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC31" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD31" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE31" s="14"/>
+      <c r="BF31" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH31" s="14"/>
+      <c r="BI31" s="14"/>
+      <c r="BJ31" s="14"/>
+      <c r="BK31" s="14"/>
+      <c r="BL31" s="14"/>
+      <c r="BM31" s="14"/>
+      <c r="BN31" s="14"/>
+      <c r="BO31" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP31" s="14"/>
+      <c r="BQ31" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR31" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS31" s="16"/>
+      <c r="BT31" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV31" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW31" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX31" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY31" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ31" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA31" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC31" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD31" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE31" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF31" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG31" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH31" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI31" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ31" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL31" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM31" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN31" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP31" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ31" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR31" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS31" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT31" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU31" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV31" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX31" s="14"/>
+      <c r="CY31" s="14"/>
+      <c r="CZ31" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA31" s="15"/>
+      <c r="DB31" s="15"/>
+      <c r="DC31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD31" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE31" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF31" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG31" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH31" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI31" s="15"/>
+      <c r="DJ31" s="15"/>
+      <c r="DK31" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL31" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM31" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN31" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO31" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS31" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="DT31" s="14"/>
+      <c r="DU31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV31" s="14"/>
+      <c r="DW31" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX31" s="14"/>
+      <c r="DY31" s="14"/>
+      <c r="DZ31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA31" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB31" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC31" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED31" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE31" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF31" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG31" s="14"/>
+      <c r="EH31" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI31" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ31" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO31" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP31" s="14"/>
+      <c r="EQ31" s="14"/>
+      <c r="ER31" s="14"/>
+      <c r="ES31" s="14"/>
+      <c r="ET31" s="14"/>
+      <c r="EU31" s="14"/>
+      <c r="EV31" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW31" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX31" s="14"/>
+      <c r="EY31" s="14"/>
+      <c r="EZ31" s="14"/>
+      <c r="FA31" s="14"/>
+      <c r="FB31" s="14"/>
+      <c r="FC31" s="14"/>
+      <c r="FD31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE31" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF31" s="14"/>
+    </row>
+    <row r="32" spans="1:162" s="13" customFormat="1">
+      <c r="A32" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC32" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG32" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN32" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR32" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX32" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY32" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ32" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB32" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC32" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD32" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG32" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="14"/>
+      <c r="BK32" s="14"/>
+      <c r="BL32" s="14"/>
+      <c r="BM32" s="14"/>
+      <c r="BN32" s="14"/>
+      <c r="BO32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP32" s="14"/>
+      <c r="BQ32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR32" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU32" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV32" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW32" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX32" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY32" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ32" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA32" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC32" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE32" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF32" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG32" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH32" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ32" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK32" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL32" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO32" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP32" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ32" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR32" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS32" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT32" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU32" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV32" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX32" s="14"/>
+      <c r="CY32" s="14"/>
+      <c r="CZ32" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA32" s="15"/>
+      <c r="DB32" s="15"/>
+      <c r="DC32" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD32" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE32" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF32" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG32" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH32" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI32" s="15"/>
+      <c r="DJ32" s="15"/>
+      <c r="DK32" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL32" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM32" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN32" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO32" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT32" s="14"/>
+      <c r="DU32" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="DV32" s="14"/>
+      <c r="DW32" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX32" s="14"/>
+      <c r="DY32" s="14"/>
+      <c r="DZ32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA32" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB32" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC32" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED32" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE32" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF32" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG32" s="14"/>
+      <c r="EH32" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI32" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ32" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO32" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP32" s="14"/>
+      <c r="EQ32" s="14"/>
+      <c r="ER32" s="14"/>
+      <c r="ES32" s="14"/>
+      <c r="ET32" s="14"/>
+      <c r="EU32" s="14"/>
+      <c r="EV32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW32" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX32" s="14"/>
+      <c r="EY32" s="14"/>
+      <c r="EZ32" s="14"/>
+      <c r="FA32" s="14"/>
+      <c r="FB32" s="14"/>
+      <c r="FC32" s="14"/>
+      <c r="FD32" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE32" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF32" s="14"/>
+    </row>
+    <row r="33" spans="1:162" s="13" customFormat="1">
+      <c r="A33" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD33" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE33" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF33" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM33" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN33" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR33" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX33" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY33" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA33" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC33" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD33" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG33" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
+      <c r="BO33" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP33" s="14"/>
+      <c r="BQ33" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR33" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS33" s="16"/>
+      <c r="BT33" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU33" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV33" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW33" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX33" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY33" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ33" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA33" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB33" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC33" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD33" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI33" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ33" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK33" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL33" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP33" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ33" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR33" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS33" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT33" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU33" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV33" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW33" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX33" s="14"/>
+      <c r="CY33" s="14"/>
+      <c r="CZ33" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA33" s="15"/>
+      <c r="DB33" s="15"/>
+      <c r="DC33" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD33" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE33" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF33" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG33" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH33" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI33" s="15"/>
+      <c r="DJ33" s="15"/>
+      <c r="DK33" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL33" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM33" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN33" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT33" s="14"/>
+      <c r="DU33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV33" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="DW33" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX33" s="14"/>
+      <c r="DY33" s="14"/>
+      <c r="DZ33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA33" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB33" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC33" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED33" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE33" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF33" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG33" s="14"/>
+      <c r="EH33" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI33" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO33" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP33" s="14"/>
+      <c r="EQ33" s="14"/>
+      <c r="ER33" s="14"/>
+      <c r="ES33" s="14"/>
+      <c r="ET33" s="14"/>
+      <c r="EU33" s="14"/>
+      <c r="EV33" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW33" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX33" s="14"/>
+      <c r="EY33" s="14"/>
+      <c r="EZ33" s="14"/>
+      <c r="FA33" s="14"/>
+      <c r="FB33" s="14"/>
+      <c r="FC33" s="14"/>
+      <c r="FD33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE33" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF33" s="14"/>
+    </row>
+    <row r="34" spans="1:162" s="13" customFormat="1">
+      <c r="A34" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE34" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF34" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN34" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR34" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX34" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY34" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ34" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE34" s="14"/>
+      <c r="BF34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG34" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH34" s="14"/>
+      <c r="BI34" s="14"/>
+      <c r="BJ34" s="14"/>
+      <c r="BK34" s="14"/>
+      <c r="BL34" s="14"/>
+      <c r="BM34" s="14"/>
+      <c r="BN34" s="14"/>
+      <c r="BO34" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP34" s="14"/>
+      <c r="BQ34" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS34" s="16"/>
+      <c r="BT34" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU34" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV34" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW34" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX34" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY34" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ34" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA34" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE34" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ34" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL34" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO34" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP34" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS34" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT34" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV34" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW34" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX34" s="14"/>
+      <c r="CY34" s="14"/>
+      <c r="CZ34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA34" s="15"/>
+      <c r="DB34" s="15"/>
+      <c r="DC34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD34" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE34" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF34" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG34" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH34" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI34" s="15"/>
+      <c r="DJ34" s="15"/>
+      <c r="DK34" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL34" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM34" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN34" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT34" s="14"/>
+      <c r="DU34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV34" s="14"/>
+      <c r="DW34" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX34" s="14"/>
+      <c r="DY34" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="DZ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA34" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB34" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC34" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED34" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE34" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF34" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG34" s="14"/>
+      <c r="EH34" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI34" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO34" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP34" s="14"/>
+      <c r="EQ34" s="14"/>
+      <c r="ER34" s="14"/>
+      <c r="ES34" s="14"/>
+      <c r="ET34" s="14"/>
+      <c r="EU34" s="14"/>
+      <c r="EV34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW34" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX34" s="14"/>
+      <c r="EY34" s="14"/>
+      <c r="EZ34" s="14"/>
+      <c r="FA34" s="14"/>
+      <c r="FB34" s="14"/>
+      <c r="FC34" s="14"/>
+      <c r="FD34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE34" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF34" s="14"/>
+    </row>
+    <row r="35" spans="1:162" s="13" customFormat="1">
+      <c r="A35" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="15">
+        <v>2042657279</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="16">
+        <v>40394</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>40663</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>36494</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>40664</v>
+      </c>
+      <c r="AG35" s="15">
+        <v>102588328182</v>
+      </c>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM35" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN35" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR35" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX35" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY35" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ35" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA35" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB35" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC35" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG35" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH35" s="14"/>
+      <c r="BI35" s="14"/>
+      <c r="BJ35" s="14"/>
+      <c r="BK35" s="14"/>
+      <c r="BL35" s="14"/>
+      <c r="BM35" s="14"/>
+      <c r="BN35" s="14"/>
+      <c r="BO35" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP35" s="14"/>
+      <c r="BQ35" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BR35" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU35" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BV35" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="BX35" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY35" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ35" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA35" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="CB35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE35" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI35" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ35" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL35" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO35" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CP35" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CR35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CS35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CT35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CU35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CV35" s="18">
+        <v>2</v>
+      </c>
+      <c r="CW35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX35" s="14"/>
+      <c r="CY35" s="14"/>
+      <c r="CZ35" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DA35" s="15"/>
+      <c r="DB35" s="15"/>
+      <c r="DC35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DD35" s="16">
+        <v>40664</v>
+      </c>
+      <c r="DE35" s="16">
+        <v>42916</v>
+      </c>
+      <c r="DF35" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="DG35" s="18">
+        <v>2</v>
+      </c>
+      <c r="DH35" s="18">
+        <v>0</v>
+      </c>
+      <c r="DI35" s="15"/>
+      <c r="DJ35" s="15"/>
+      <c r="DK35" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL35" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM35" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN35" s="16">
+        <v>42612</v>
+      </c>
+      <c r="DO35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="DP35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DQ35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DR35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT35" s="14"/>
+      <c r="DU35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV35" s="14"/>
+      <c r="DW35" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DX35" s="14"/>
+      <c r="DY35" s="14"/>
+      <c r="DZ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EA35" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EB35" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EC35" s="14">
+        <v>1178.6681339685206</v>
+      </c>
+      <c r="ED35" s="14">
+        <v>1628</v>
+      </c>
+      <c r="EE35" s="14">
+        <v>1178.6679999999999</v>
+      </c>
+      <c r="EF35" s="14">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="EG35" s="14"/>
+      <c r="EH35" s="19">
+        <v>42674</v>
+      </c>
+      <c r="EI35" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ35" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="EK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EL35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EM35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EN35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EO35" s="14">
+        <v>0</v>
+      </c>
+      <c r="EP35" s="14"/>
+      <c r="EQ35" s="14"/>
+      <c r="ER35" s="14"/>
+      <c r="ES35" s="14"/>
+      <c r="ET35" s="14"/>
+      <c r="EU35" s="14"/>
+      <c r="EV35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EW35" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="EX35" s="14"/>
+      <c r="EY35" s="14"/>
+      <c r="EZ35" s="14"/>
+      <c r="FA35" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="FB35" s="14"/>
+      <c r="FC35" s="14"/>
+      <c r="FD35" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE35" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FF35" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
